--- a/婷婷/doc/【富钛】BPM流程清单汇总_完整版.xlsx
+++ b/婷婷/doc/【富钛】BPM流程清单汇总_完整版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="14020" windowHeight="6910" tabRatio="842" firstSheet="28" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="14020" windowHeight="6910" tabRatio="842" firstSheet="26" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="OA类需求清单" sheetId="24" r:id="rId1"/>
@@ -5423,57 +5423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5510,10 +5459,22 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5531,7 +5492,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5551,12 +5557,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10325,91 +10325,91 @@
       <c r="J20" s="116"/>
     </row>
     <row r="21" spans="10:10">
-      <c r="J21" s="154" t="s">
+      <c r="J21" s="156" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="155"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="155"/>
+      <c r="J23" s="157"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="155"/>
+      <c r="J24" s="157"/>
     </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="155"/>
+      <c r="J25" s="157"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="155"/>
+      <c r="J26" s="157"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="155"/>
+      <c r="J27" s="157"/>
     </row>
     <row r="28" spans="10:10">
-      <c r="J28" s="155"/>
+      <c r="J28" s="157"/>
     </row>
     <row r="29" spans="10:10">
-      <c r="J29" s="155"/>
+      <c r="J29" s="157"/>
     </row>
     <row r="30" spans="10:10">
-      <c r="J30" s="155"/>
+      <c r="J30" s="157"/>
     </row>
     <row r="31" spans="10:10">
-      <c r="J31" s="155"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="10:10">
-      <c r="J32" s="155"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="155"/>
+      <c r="J33" s="157"/>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="155"/>
+      <c r="J34" s="157"/>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="155"/>
+      <c r="J35" s="157"/>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="155"/>
+      <c r="J36" s="157"/>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="156"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="154" t="s">
+      <c r="J38" s="156" t="s">
         <v>761</v>
       </c>
-      <c r="K38" s="154" t="s">
+      <c r="K38" s="156" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="158"/>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="157" t="s">
+      <c r="J42" s="159" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="43" spans="10:11">
-      <c r="J43" s="157"/>
+      <c r="J43" s="159"/>
     </row>
     <row r="44" spans="10:11">
-      <c r="J44" s="157"/>
+      <c r="J44" s="159"/>
     </row>
     <row r="45" spans="10:11">
-      <c r="J45" s="157"/>
+      <c r="J45" s="159"/>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
@@ -10612,18 +10612,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>662</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="64" t="s">
@@ -10718,18 +10718,18 @@
       <c r="J7" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="25.5">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="160" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="64" t="s">
@@ -11002,7 +11002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -17729,7 +17729,7 @@
   </sheetPr>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
@@ -17845,7 +17845,7 @@
   </sheetPr>
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
@@ -18450,18 +18450,18 @@
       <c r="A1" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="102" t="s">
@@ -18860,7 +18860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -19206,40 +19206,40 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="126" t="s">
         <v>544</v>
       </c>
-      <c r="B5" s="143"/>
+      <c r="B5" s="126"/>
       <c r="H5" s="34" t="s">
         <v>545</v>
       </c>
@@ -19248,17 +19248,17 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="127" t="s">
         <v>547</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="132"/>
       <c r="H6" s="36" t="s">
         <v>549</v>
       </c>
@@ -19268,55 +19268,55 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="133" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="148" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="135" t="s">
         <v>552</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
       <c r="J7" s="34" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="138" t="s">
         <v>554</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="153"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="119" t="s">
         <v>557</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>559</v>
       </c>
@@ -19331,14 +19331,14 @@
       <c r="C10" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="142" t="s">
         <v>563</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132" t="s">
+      <c r="E10" s="142"/>
+      <c r="F10" s="142" t="s">
         <v>564</v>
       </c>
-      <c r="G10" s="132"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="41" t="s">
         <v>565</v>
       </c>
@@ -19359,10 +19359,10 @@
       <c r="C11" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="47"/>
       <c r="I11" s="48"/>
       <c r="J11" s="34" t="s">
@@ -19379,10 +19379,10 @@
       <c r="C12" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
       <c r="J12" s="35"/>
@@ -19397,10 +19397,10 @@
       <c r="C13" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
       <c r="J13" s="35"/>
@@ -19415,10 +19415,10 @@
       <c r="C14" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
       <c r="J14" s="35"/>
@@ -19433,10 +19433,10 @@
       <c r="C15" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
       <c r="J15" s="35"/>
@@ -19451,10 +19451,10 @@
       <c r="C16" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
       <c r="J16" s="35"/>
@@ -19469,12 +19469,12 @@
       <c r="C17" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="134" t="s">
         <v>576</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
       <c r="H17" s="49"/>
       <c r="I17" s="50"/>
       <c r="J17" s="35"/>
@@ -19485,46 +19485,46 @@
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="52"/>
       <c r="I18" s="53"/>
       <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10" s="33" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="150" t="s">
         <v>577</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
       <c r="J19" s="34" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="133" t="s">
         <v>579</v>
       </c>
-      <c r="B20" s="126"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="38" t="s">
         <v>580</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="E20" s="126" t="s">
+      <c r="E20" s="134" t="s">
         <v>582</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
       <c r="H20" s="38" t="s">
         <v>583</v>
       </c>
@@ -19536,112 +19536,112 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="133" t="s">
         <v>586</v>
       </c>
-      <c r="B21" s="127"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="38" t="s">
         <v>587</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="49"/>
       <c r="I21" s="50"/>
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="127"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="38" t="s">
         <v>588</v>
       </c>
       <c r="D22" s="49"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
       <c r="H22" s="49"/>
       <c r="I22" s="50"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="127"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="38" t="s">
         <v>589</v>
       </c>
       <c r="D23" s="49"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="49"/>
       <c r="I23" s="50"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="127"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="38" t="s">
         <v>590</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="49"/>
       <c r="I24" s="50"/>
       <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="55" t="s">
         <v>591</v>
       </c>
       <c r="D25" s="52"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
       <c r="H25" s="52"/>
       <c r="I25" s="53"/>
       <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" s="33" customFormat="1" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="145" t="s">
         <v>592</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
       <c r="J26" s="34" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="148" t="s">
         <v>594</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
       <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="149" t="s">
         <v>595</v>
       </c>
-      <c r="B28" s="121"/>
+      <c r="B28" s="149"/>
       <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1">
@@ -19676,6 +19676,36 @@
     <row r="36" spans="1:10" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B25"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
@@ -19690,36 +19720,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
